--- a/biology/Zoologie/Hespérie_du_pas-d'âne/Hespérie_du_pas-d'âne.xlsx
+++ b/biology/Zoologie/Hespérie_du_pas-d'âne/Hespérie_du_pas-d'âne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_pas-d%27%C3%A2ne</t>
+          <t>Hespérie_du_pas-d'âne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrgus cacaliae
 L’Hespérie du pas-d'âne ou Hespérie obscure ou Tavelé (Pyrgus cacaliae) est une espèce de lépidoptères (papillons) de la famille des Hesperiidae, de la sous-famille des Pyrginae et du genre Pyrgus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_pas-d%27%C3%A2ne</t>
+          <t>Hespérie_du_pas-d'âne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pyrgus cacaliae a été décrit par Pierre Rambur en 1839[1].
-Noms vernaculaires
-L'Hespérie du pas-d'âne ou Hespérie obscure ou Tavelé se nomme Dusky Grizzled Skipper en anglais et Ajedrezada oscura en espagnol[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pyrgus cacaliae a été décrit par Pierre Rambur en 1839.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_pas-d%27%C3%A2ne</t>
+          <t>Hespérie_du_pas-d'âne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Hespérie du pas-d'âne est un petit papillon de couleur marron, avec une frange blanche entrecoupée et aux antérieures une ornementation de quelques toutes petites taches blanches.
-Le revers est plus clair vert kaki clair taché de blanc sans tache blanche à la base de e2.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du pas-d'âne ou Hespérie obscure ou Tavelé se nomme Dusky Grizzled Skipper en anglais et Ajedrezada oscura en espagnol,.
 </t>
         </is>
       </c>
@@ -559,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_pas-d%27%C3%A2ne</t>
+          <t>Hespérie_du_pas-d'âne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,15 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie du pas-d'âne vole en une seule génération entre juin et août[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Potentilla,  Sibbaldia et Tussilago farfara[1],[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du pas-d'âne est un petit papillon de couleur marron, avec une frange blanche entrecoupée et aux antérieures une ornementation de quelques toutes petites taches blanches.
+Le revers est plus clair vert kaki clair taché de blanc sans tache blanche à la base de e2.
 </t>
         </is>
       </c>
@@ -593,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_pas-d%27%C3%A2ne</t>
+          <t>Hespérie_du_pas-d'âne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,17 +625,163 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du pas-d'âne vole en une seule génération entre juin et août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_du_pas-d'âne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_pas-d%27%C3%A2ne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Potentilla,  Sibbaldia et Tussilago farfara,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_du_pas-d'âne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_pas-d%27%C3%A2ne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie du pas-d'âne est présente uniquement en Europe sous forme de petits isolats dans les Alpes en France, Italie, Suisse, Allemagne et dans les montagnes de Bulgarie et Roumanie[1],[3].
-L'Hespérie du pas-d'âne est présente en France métropolitaine dans les six départements des Alpes et tout particulièrement dans le Parc du Mercantour avec deux sites remarquables dans les Alpes-de-Haute-Provence et deux sites remarquables dans les Alpes-Maritimes[4],[5]. Sa présence dans les Pyrénées en France et en Andorre demande à être confirmée[3].
-Biotope
-L'Hespérie du pas-d'âne réside dans les vallons embroussaillés de montagne[3].
-Protection
-Pas de statut de protection particulier[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du pas-d'âne est présente uniquement en Europe sous forme de petits isolats dans les Alpes en France, Italie, Suisse, Allemagne et dans les montagnes de Bulgarie et Roumanie,.
+L'Hespérie du pas-d'âne est présente en France métropolitaine dans les six départements des Alpes et tout particulièrement dans le Parc du Mercantour avec deux sites remarquables dans les Alpes-de-Haute-Provence et deux sites remarquables dans les Alpes-Maritimes,. Sa présence dans les Pyrénées en France et en Andorre demande à être confirmée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_du_pas-d'âne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_pas-d%27%C3%A2ne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du pas-d'âne réside dans les vallons embroussaillés de montagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_du_pas-d'âne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_pas-d%27%C3%A2ne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
